--- a/program_directory/interpreterAccounting/高德红外：2019年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/高德红外：2019年年度报告.xlsx
@@ -460,8 +460,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -473,14 +473,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,23 +494,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,33 +517,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,17 +531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,15 +549,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,6 +577,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -615,6 +592,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -637,175 +637,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,15 +816,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -840,6 +831,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -847,16 +862,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,31 +892,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,85 +919,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1006,61 +1006,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1712,8 +1712,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -1765,7 +1765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1790,35 +1790,35 @@
       <c r="H3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>89</v>
       </c>
     </row>
